--- a/results/A-06.xlsx
+++ b/results/A-06.xlsx
@@ -733,37 +733,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-6022.589428225342</v>
+        <v>-6004.444595981147</v>
       </c>
       <c r="C2">
-        <v>13603.33399428881</v>
+        <v>13573.29778373467</v>
       </c>
       <c r="D2">
-        <v>-6961.137352440926</v>
+        <v>-6950.007831991451</v>
       </c>
       <c r="E2">
-        <v>-619.6072136225297</v>
+        <v>-618.8453557620749</v>
       </c>
       <c r="F2">
-        <v>56.50688919325859</v>
+        <v>56.36079380897991</v>
       </c>
       <c r="G2">
-        <v>45.20058695919579</v>
+        <v>45.21879701406675</v>
       </c>
       <c r="H2">
-        <v>56.83964980640667</v>
+        <v>56.68861583259826</v>
       </c>
       <c r="I2">
-        <v>45.31020515582605</v>
+        <v>45.36862495871259</v>
       </c>
       <c r="J2">
-        <v>56.56559306423753</v>
+        <v>56.42082461936974</v>
       </c>
       <c r="K2">
-        <v>45.80985517958743</v>
+        <v>45.8929585636667</v>
       </c>
       <c r="L2">
-        <v>53.60369918317906</v>
+        <v>53.57777799425878</v>
       </c>
       <c r="M2">
         <v>45</v>
@@ -772,22 +772,22 @@
         <v>65</v>
       </c>
       <c r="O2">
-        <v>45.56666572244455</v>
+        <v>45.60957459466476</v>
       </c>
       <c r="P2">
-        <v>54.94448193205847</v>
+        <v>54.92858261713064</v>
       </c>
       <c r="Q2">
         <v>45</v>
       </c>
       <c r="R2">
-        <v>7.609649030306675</v>
+        <v>7.698600306701701</v>
       </c>
       <c r="S2">
-        <v>-16.85539491841594</v>
+        <v>-17.12936487437229</v>
       </c>
       <c r="T2">
-        <v>9.245745888109266</v>
+        <v>9.430764567670584</v>
       </c>
       <c r="U2">
         <v>10</v>
@@ -799,13 +799,13 @@
         <v>10</v>
       </c>
       <c r="X2">
-        <v>-118.925209583109</v>
+        <v>-120.9519315019875</v>
       </c>
       <c r="Y2">
-        <v>-159.5558362313503</v>
+        <v>-157.919038527756</v>
       </c>
       <c r="Z2">
-        <v>-99.57559982546989</v>
+        <v>-102.4455186539984</v>
       </c>
       <c r="AB2">
         <v>10</v>
@@ -817,91 +817,91 @@
         <v>10</v>
       </c>
       <c r="AE2">
-        <v>-7.609649030306675</v>
+        <v>-7.698600306701701</v>
       </c>
       <c r="AF2">
-        <v>9.245745888109266</v>
+        <v>9.430764567670584</v>
       </c>
       <c r="AG2">
-        <v>7.609649030306675</v>
+        <v>7.698600306701701</v>
       </c>
       <c r="AH2">
-        <v>-16.85539491841594</v>
+        <v>-17.12936487437229</v>
       </c>
       <c r="AI2">
-        <v>9.245745888109266</v>
+        <v>9.430764567670584</v>
       </c>
       <c r="AJ2">
-        <v>7.609649030306675</v>
+        <v>7.698600306701701</v>
       </c>
       <c r="AK2">
-        <v>-9.245745888109266</v>
+        <v>-9.430764567670584</v>
       </c>
       <c r="AL2">
-        <v>20.31531332412063</v>
+        <v>18.48355351288429</v>
       </c>
       <c r="AM2">
-        <v>-29.9901182029402</v>
+        <v>-27.73675993687877</v>
       </c>
       <c r="AN2">
-        <v>-118.925209583109</v>
+        <v>-120.9519315019875</v>
       </c>
       <c r="AO2">
-        <v>-159.5558362313503</v>
+        <v>-157.919038527756</v>
       </c>
       <c r="AP2">
-        <v>-99.57559982546989</v>
+        <v>-102.4455186539984</v>
       </c>
       <c r="AQ2">
-        <v>-20.31531332412063</v>
+        <v>-18.48355351288429</v>
       </c>
       <c r="AR2">
-        <v>29.9901182029402</v>
+        <v>27.73675993687877</v>
       </c>
       <c r="AS2">
-        <v>56.50688919325859</v>
+        <v>56.36079380897991</v>
       </c>
       <c r="AT2">
-        <v>56.50688919325859</v>
+        <v>56.36079380897991</v>
       </c>
       <c r="AU2">
-        <v>56.83964980640661</v>
+        <v>56.68861583259837</v>
       </c>
       <c r="AV2">
-        <v>56.83964980640661</v>
+        <v>56.68861583259837</v>
       </c>
       <c r="AW2">
-        <v>56.83964980640667</v>
+        <v>56.68861583259826</v>
       </c>
       <c r="AX2">
-        <v>56.56559306423753</v>
+        <v>56.42082461936974</v>
       </c>
       <c r="AY2">
-        <v>56.56559306423753</v>
+        <v>56.42082461936974</v>
       </c>
       <c r="AZ2">
-        <v>45.20058695919579</v>
+        <v>45.21879701406675</v>
       </c>
       <c r="BA2">
-        <v>45.20058695919579</v>
+        <v>45.21879701406675</v>
       </c>
       <c r="BB2">
-        <v>45.31020515582605</v>
+        <v>45.36862495871259</v>
       </c>
       <c r="BC2">
-        <v>44.95420127774833</v>
+        <v>44.97511407476708</v>
       </c>
       <c r="BD2">
-        <v>45.60321175565957</v>
+        <v>45.68985904213145</v>
       </c>
       <c r="BE2">
-        <v>45.80985517958743</v>
+        <v>45.8929585636667</v>
       </c>
       <c r="BF2">
-        <v>45.80985517958749</v>
+        <v>45.89295856366664</v>
       </c>
       <c r="BG2">
-        <v>53.60369918317906</v>
+        <v>53.57777799425878</v>
       </c>
       <c r="BH2">
         <v>45</v>
@@ -910,10 +910,10 @@
         <v>65</v>
       </c>
       <c r="BJ2">
-        <v>45.56666572244455</v>
+        <v>45.60957459466476</v>
       </c>
       <c r="BK2">
-        <v>54.94448193205847</v>
+        <v>54.92858261713064</v>
       </c>
       <c r="BL2">
         <v>45</v>
